--- a/data/trans_camb/P17_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>-7,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,99</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,07</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-12,13</t>
+          <t>-16,82</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-13,25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-11,89</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,37</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-7,41</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-11,74</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-10,3</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>-3,73</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-11,77</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-10,76</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-6,45</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; -1,07</t>
+          <t>-13,26; -0,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -2,1</t>
+          <t>-14,08; -1,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 6,8</t>
+          <t>-8,37; 8,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 4,67</t>
+          <t>-7,55; 9,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,48; -8,22</t>
+          <t>-9,19; 10,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -6,62</t>
+          <t>-5,58; 13,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,91; -3,14</t>
+          <t>-24,69; -9,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 6,1</t>
+          <t>-22,53; -5,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,82; -6,92</t>
+          <t>-20,36; -4,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -5,89</t>
+          <t>-17,48; 0,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-11,91; -1,1</t>
+          <t>-11,38; 6,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 2,91</t>
+          <t>-16,95; 2,66</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-16,78; -6,84</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; -4,47</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; 0,18</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 2,72</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 5,46</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 5,59</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-56,45%</t>
+          <t>-57,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-63,96%</t>
+          <t>-63,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,28%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,35%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,73%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-47,18%</t>
+          <t>-65,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,49%</t>
+          <t>-51,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-62,56%</t>
+          <t>-46,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-57,22%</t>
+          <t>-32,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-34,28%</t>
+          <t>-15,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-18,47%</t>
+          <t>-33,7%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-62,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-54,76%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-29,71%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-19,82%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-7,97%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-9,47%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-83,89; 0,57</t>
+          <t>-82,78; 4,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,38; -11,31</t>
+          <t>-86,54; -7,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 78,83</t>
+          <t>-52,85; 94,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-69,85; 48,6</t>
+          <t>-51,05; 102,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,73; -36,76</t>
+          <t>-54,78; 121,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,15; -28,57</t>
+          <t>-46,19; 231,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,27; -13,84</t>
+          <t>-82,07; -41,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 30,49</t>
+          <t>-72,41; -24,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,86; -40,79</t>
+          <t>-67,9; -16,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-72,43; -35,06</t>
+          <t>-57,65; 5,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-55,79; -5,75</t>
+          <t>-51,06; 56,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 19,17</t>
+          <t>-61,62; 19,78</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-77,56; -40,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-69,94; -26,53</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-53,64; -0,85</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-44,19; 18,81</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-43,72; 48,0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-43,55; 48,47</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,66</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,08</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,53</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,25</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>-12,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,81</t>
+          <t>-9,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-6,82</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-9,95</t>
+          <t>5,79</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-9,07</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-8,59</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-6,51</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,91</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 5,64</t>
+          <t>-15,37; 5,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -0,52</t>
+          <t>-18,24; -0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 1,26</t>
+          <t>-17,5; 2,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -4,36</t>
+          <t>-11,93; 12,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,6; -6,07</t>
+          <t>-14,48; 10,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -2,27</t>
+          <t>2,68; 18,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 2,34</t>
+          <t>-19,16; -5,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,73; -1,79</t>
+          <t>-15,88; -2,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,66; -2,48</t>
+          <t>-11,65; 3,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-14,7; -3,3</t>
+          <t>-12,56; 3,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -0,65</t>
+          <t>-7,5; 9,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-16,52; -4,82</t>
+          <t>-1,36; 13,81</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-15,37; -2,38</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-15,01; -3,58</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; -0,58</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 6,28</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; 7,01</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 13,73</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-37,51%</t>
+          <t>-35,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-46,79%</t>
+          <t>-49,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,33%</t>
+          <t>-50,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-67,7%</t>
+          <t>-7,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-62,24%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,96%</t>
+          <t>187,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,4%</t>
+          <t>-62,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-43,73%</t>
+          <t>-45,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-50,78%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-46,41%</t>
+          <t>-21,37%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-37,51%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-54,75%</t>
+          <t>51,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-49,86%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-47,28%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-35,79%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-14,87%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>96,18%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,08; 53,52</t>
+          <t>-73,07; 59,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,31; -0,33</t>
+          <t>-76,85; -2,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,04; 35,24</t>
+          <t>-77,75; 34,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-89,72; -24,64</t>
+          <t>-60,53; 121,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,69; -34,26</t>
+          <t>-63,19; 110,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,13; -12,69</t>
+          <t>23,44; 715,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 15,77</t>
+          <t>-80,37; -31,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,01; -7,83</t>
+          <t>-66,15; -10,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-69,98; -12,57</t>
+          <t>-49,05; 18,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-65,5; -21,62</t>
+          <t>-52,64; 22,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-57,44; -2,56</t>
+          <t>-36,96; 80,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-72,9; -29,22</t>
+          <t>-11,71; 177,02</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-71,11; -11,64</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-65,92; -23,11</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-58,3; -1,7</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-45,01; 43,88</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-39,12; 58,98</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>21,04; 219,53</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,18</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-9,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-7,6</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-4,0</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-4,39</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 8,1</t>
+          <t>-11,38; -1,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 3,28</t>
+          <t>-9,5; 1,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 2,56</t>
+          <t>-9,28; 1,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,05</t>
+          <t>-10,83; 0,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -3,61</t>
+          <t>0,76; 14,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 1,02</t>
+          <t>-5,29; 9,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 1,24</t>
+          <t>-15,18; -3,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 3,02</t>
+          <t>-10,74; 0,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -0,4</t>
+          <t>-9,92; 1,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 0,16</t>
+          <t>-9,81; 2,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 0,24</t>
+          <t>-6,3; 7,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,14</t>
+          <t>-7,15; 7,02</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; -3,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; -0,14</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 0,16</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; -0,01</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 8,89</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 6,44</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-25,79%</t>
+          <t>-45,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>-29,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>-29,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>-38,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-44,46%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,03%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-21,44%</t>
+          <t>-43,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
+          <t>-23,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-37,24%</t>
+          <t>-20,05%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-23,53%</t>
+          <t>-18,32%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-22,14%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-8,36%</t>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-44,45%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-25,42%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-23,38%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-25,69%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>33,38%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,6; 79,28</t>
+          <t>-69,97; -9,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,42; 33,52</t>
+          <t>-57,06; 20,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 24,37</t>
+          <t>-56,77; 10,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 74,41</t>
+          <t>-63,98; 6,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,22; -19,14</t>
+          <t>4,4; 239,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 5,68</t>
+          <t>-29,38; 83,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,99; 8,07</t>
+          <t>-62,71; -16,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 18,24</t>
+          <t>-45,33; 4,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 0,36</t>
+          <t>-41,46; 9,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 4,11</t>
+          <t>-41,47; 12,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 1,63</t>
+          <t>-33,48; 51,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 20,78</t>
+          <t>-36,15; 52,74</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-58,9; -23,31</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-45,16; -0,14</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-42,16; 1,89</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-45,5; -0,09</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 86,93</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-22,83; 48,3</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,54</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-6,31</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -0,66</t>
+          <t>-10,32; -1,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 1,73</t>
+          <t>-7,69; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 9,44</t>
+          <t>-2,12; 8,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 10,18</t>
+          <t>1,24; 15,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -0,72</t>
+          <t>-6,03; 10,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 5,13</t>
+          <t>-0,56; 15,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,6</t>
+          <t>-12,95; -0,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 9,33</t>
+          <t>-7,2; 5,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -2,75</t>
+          <t>-7,28; 5,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 1,59</t>
+          <t>-7,71; 5,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,83</t>
+          <t>-6,59; 6,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 7,24</t>
+          <t>-9,97; 5,96</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; -2,55</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 1,82</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 4,58</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 8,39</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 6,39</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 7,41</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-49,31%</t>
+          <t>-48,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-24,65%</t>
+          <t>-24,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>63,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-31,62%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,2%</t>
+          <t>-29,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-37,58%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-12,42%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>-10,26%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-36,29%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-12,1%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,34; -0,7</t>
+          <t>-71,66; -8,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,38; 19,28</t>
+          <t>-54,96; 20,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 103,03</t>
+          <t>-15,13; 92,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 111,25</t>
+          <t>6,33; 161,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,42; -3,31</t>
+          <t>-27,03; 68,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 26,44</t>
+          <t>-3,24; 134,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 23,81</t>
+          <t>-50,87; -2,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 49,55</t>
+          <t>-28,09; 29,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,1; -16,34</t>
+          <t>-28,05; 26,31</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 10,62</t>
+          <t>-30,63; 26,42</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 31,02</t>
+          <t>-27,23; 39,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 46,48</t>
+          <t>-34,95; 31,31</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-53,77; -16,11</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-31,14; 12,15</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-19,14; 29,52</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 53,22</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 36,57</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; 43,61</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>-6,33</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-6,31</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>7,21</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 0,68</t>
+          <t>-8,42; 1,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 4,7</t>
+          <t>-4,91; 5,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,19</t>
+          <t>-4,8; 6,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,13; 16,51</t>
+          <t>-5,24; 6,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -0,55</t>
+          <t>4,29; 19,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 4,29</t>
+          <t>-6,4; 11,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 8,07</t>
+          <t>-16,24; -2,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 17,3</t>
+          <t>-11,37; 3,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -1,34</t>
+          <t>-7,37; 7,37</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,81</t>
+          <t>-7,85; 7,66</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 5,56</t>
+          <t>-6,28; 10,69</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,61; 14,93</t>
+          <t>-14,79; 1,97</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; -2,01</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 2,89</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 4,97</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 5,37</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 12,65</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 4,99</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-39,11%</t>
+          <t>-36,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-37,79%</t>
+          <t>114,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-15,91%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>-40,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>-15,17%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-37,61%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-12,05%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>-20,41%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-39,04%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-10,49%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>43,65%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-7,02%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-70,21; 14,54</t>
+          <t>-67,65; 24,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 64,15</t>
+          <t>-40,45; 72,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 67,89</t>
+          <t>-38,34; 80,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,39; 207,62</t>
+          <t>-43,02; 80,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-60,07; -2,14</t>
+          <t>26,76; 257,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 23,9</t>
+          <t>-27,21; 70,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 45,18</t>
+          <t>-63,34; -11,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2,31; 92,99</t>
+          <t>-42,17; 21,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-56,5; -7,9</t>
+          <t>-28,75; 41,47</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 22,03</t>
+          <t>-30,55; 40,84</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 39,96</t>
+          <t>-23,81; 59,91</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>18,95; 108,79</t>
+          <t>-42,28; 8,31</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-59,21; -14,32</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-32,23; 22,11</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-22,61; 37,0</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-24,81; 37,71</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 91,89</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-26,82; 22,09</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-4,38</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 10,26</t>
+          <t>-6,2; 9,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 13,3</t>
+          <t>-4,11; 12,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 10,9</t>
+          <t>-4,18; 11,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 6,66</t>
+          <t>-11,8; 2,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 2,45</t>
+          <t>-3,16; 12,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 0,43</t>
+          <t>-5,71; 10,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 14,51</t>
+          <t>-13,19; 2,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 4,59</t>
+          <t>-13,69; 1,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 2,85</t>
+          <t>-8,14; 10,33</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 2,84</t>
+          <t>-13,51; 6,27</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 11,18</t>
+          <t>-5,55; 16,38</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 2,78</t>
+          <t>-3,17; 18,36</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; 3,35</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-6,7; 3,43</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 7,98</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-10,36; 2,56</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 13,19</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 12,52</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>-33,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-19,99%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>-19,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-18,82%</t>
+          <t>-24,42%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-13,68%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>-15,1%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>-16,16%</t>
+          <t>32,14%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-12,87%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-8,47%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>-20,67%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>35,56%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>28,28%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 103,63</t>
+          <t>-38,88; 96,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 123,35</t>
+          <t>-24,55; 117,28</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 108,87</t>
+          <t>-27,09; 113,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 63,54</t>
+          <t>-72,09; 28,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 10,18</t>
+          <t>-29,39; 237,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 3,29</t>
+          <t>-35,73; 126,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 61,92</t>
+          <t>-44,19; 12,48</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 20,09</t>
+          <t>-45,66; 6,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-37,32; 15,27</t>
+          <t>-27,52; 46,4</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 15,08</t>
+          <t>-44,68; 26,84</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 57,2</t>
+          <t>-19,46; 94,11</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-41,89; 14,82</t>
+          <t>-11,34; 119,6</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-35,91; 17,8</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-29,21; 17,75</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-19,65; 42,12</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-44,72; 13,26</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 101,83</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 97,93</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-9,42</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-7,09</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -0,3</t>
+          <t>-7,5; -1,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -0,47</t>
+          <t>-5,89; -0,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,57</t>
+          <t>-4,05; 1,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,62</t>
+          <t>-3,67; 3,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -6,81</t>
+          <t>0,97; 8,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -3,58</t>
+          <t>1,22; 8,06</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,08</t>
+          <t>-12,15; -6,1</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,53</t>
+          <t>-8,76; -3,11</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -4,48</t>
+          <t>-6,35; -0,13</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -2,68</t>
+          <t>-6,66; 0,05</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,23</t>
+          <t>-1,68; 5,29</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,13</t>
+          <t>-3,34; 3,83</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; -5,02</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; -2,77</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; -0,04</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 0,47</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 5,69</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 4,99</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-32,96%</t>
+          <t>-36,19%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-23,04%</t>
+          <t>-24,23%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-8,56%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-40,92%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-27,72%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>-40,71%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-7,92%</t>
+          <t>-26,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-38,07%</t>
+          <t>-14,41%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-26,1%</t>
+          <t>-14,96%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-39,06%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-25,6%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-12,16%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-10,87%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>19,68%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,92; -0,96</t>
+          <t>-52,47; -12,87</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-38,07; -3,05</t>
+          <t>-40,24; -1,53</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 13,51</t>
+          <t>-27,39; 16,28</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 22,66</t>
+          <t>-25,71; 26,57</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-50,93; -30,8</t>
+          <t>5,55; 78,75</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-36,96; -16,48</t>
+          <t>8,53; 71,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 1,23</t>
+          <t>-49,74; -28,71</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 6,91</t>
+          <t>-35,82; -14,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-46,86; -25,15</t>
+          <t>-25,84; -0,58</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-35,53; -15,88</t>
+          <t>-27,23; -0,53</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 1,7</t>
+          <t>-7,85; 30,68</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 6,57</t>
+          <t>-14,36; 20,44</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-47,88; -28,67</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; -15,96</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-22,53; -0,27</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-22,42; 2,72</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 38,84</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 32,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
